--- a/Jogos_do_Dia/2024-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -703,13 +703,13 @@
         <v>3.75</v>
       </c>
       <c r="J2">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M2">
         <v>1.41</v>
@@ -834,13 +834,13 @@
         <v>2.4</v>
       </c>
       <c r="J3">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="M3">
         <v>1.39</v>
@@ -956,22 +956,22 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H4">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J4">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K4">
         <v>2.9</v>
       </c>
       <c r="L4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>1.52</v>
@@ -992,16 +992,16 @@
         <v>2.5</v>
       </c>
       <c r="S4">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U4">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W4">
         <v>1.28</v>
@@ -1028,43 +1028,43 @@
         <v>2.37</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -766,43 +766,43 @@
         <v>2.43</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -834,13 +834,13 @@
         <v>2.4</v>
       </c>
       <c r="J3">
-        <v>4.1</v>
+        <v>3.78</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="L3">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="M3">
         <v>1.39</v>
@@ -861,10 +861,10 @@
         <v>3.3</v>
       </c>
       <c r="S3">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -897,37 +897,37 @@
         <v>2.74</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP3">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -703,13 +703,13 @@
         <v>3.75</v>
       </c>
       <c r="J2">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="K2">
-        <v>3.34</v>
+        <v>3.05</v>
       </c>
       <c r="L2">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="M2">
         <v>1.41</v>
@@ -730,10 +730,10 @@
         <v>3.3</v>
       </c>
       <c r="S2">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T2">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="U2">
         <v>1.72</v>
@@ -834,13 +834,13 @@
         <v>2.4</v>
       </c>
       <c r="J3">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="K3">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="M3">
         <v>1.39</v>
@@ -861,10 +861,10 @@
         <v>3.3</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="T3">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -930,10 +930,10 @@
         <v>1.32</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -959,13 +959,13 @@
         <v>3.25</v>
       </c>
       <c r="H4">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="I4">
         <v>3.75</v>
       </c>
       <c r="J4">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="K4">
         <v>2.9</v>
@@ -992,10 +992,10 @@
         <v>2.5</v>
       </c>
       <c r="S4">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U4">
         <v>2.2</v>
